--- a/data/gentrifData.xlsx
+++ b/data/gentrifData.xlsx
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">gentrifData.csv!$A$1:$C$787</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -395,8 +395,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -542,19 +556,33 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="27">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -836,7 +864,7 @@
   <dimension ref="A1:D787"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
